--- a/medicine/Enfance/Thomas_Ward_l'épouvanteur/Thomas_Ward_l'épouvanteur.xlsx
+++ b/medicine/Enfance/Thomas_Ward_l'épouvanteur/Thomas_Ward_l'épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thomas_Ward_l%27%C3%A9pouvanteur</t>
+          <t>Thomas_Ward_l'épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thomas Ward l'épouvanteur (titre original : A New Darkness) est le premier tome de la série The Starblade Chronicles signée Joseph Delaney et qui prend la suite de la série L'Épouvanteur. Il est paru en 2014. L'éditeur français le présente comme le quatorzième volume de la série L'Épouvanteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas_Ward_l%27%C3%A9pouvanteur</t>
+          <t>Thomas_Ward_l'épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Ward devenu épouvanteur se remet des lourdes épreuves qu'il vient de traverser. La perte des êtres qui lui étaient chers l'on beaucoup affecté. Mais il va devoir se relever pour former Jenny, une jeune fille voulant devenir épouvanteur et aider Grimalkin dans une nouvelle quête: défendre ses terres contre les Kobalos, de puissants guerriers. Encore une aventure difficile pour le jeune épouvanteur qui pourrait très bien se révéler être sa dernière...
 </t>
